--- a/biology/Zoologie/Aname_pallida/Aname_pallida.xlsx
+++ b/biology/Zoologie/Aname_pallida/Aname_pallida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aname pallida est une espèce d'araignées mygalomorphes de la famille des Anamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aname pallida est une espèce d'araignées mygalomorphes de la famille des Anamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre de Mareeba à Biloela[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre de Mareeba à Biloela.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Raven en 1981 mesure 8,70 mm de long sur 6,80 mm et l'abdomen 8,00 mm de long sur 5,20 mm et la carapace de la femelle mesure 9,45 mm de long sur 7,05 mm et l'abdomen 8,23 mm de long sur 5,00 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Raven en 1981 mesure 8,70 mm de long sur 6,80 mm et l'abdomen 8,00 mm de long sur 5,20 mm et la carapace de la femelle mesure 9,45 mm de long sur 7,05 mm et l'abdomen 8,23 mm de long sur 5,00 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L. Koch, 1873 : Die Arachniden Australiens. Nürnberg, vol. 1, p. 369-472 (texte intégral).</t>
         </is>
